--- a/price_catalog.xlsx
+++ b/price_catalog.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Keyword Patterns" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Severity Multipliers" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Origin Premiums" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Business Multipliers" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -21,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,8 +41,12 @@
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +57,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF1F4E79"/>
         <bgColor rgb="FF1F4E79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F4E79"/>
+        <bgColor rgb="001F4E79"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,10 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,47 +808,46 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="11.85546875" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Sub_Category</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Material_Cost</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Labor_Hours</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Hourly_Rate</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -845,90 +856,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Scheduling &amp; Planning</t>
+          <t>Communication &amp; Response</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TI/Calendar Issues</t>
+          <t>Delayed Deliverable</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>TI entry errors</t>
-        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Scheduling &amp; Planning</t>
+          <t>Communication &amp; Response</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FE Coordination</t>
+          <t>Delayed Response</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>FE site coordination</t>
-        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Scheduling &amp; Planning</t>
+          <t>Communication &amp; Response</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Closeout/Bucket Issues</t>
+          <t>No Communication</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ticket bucket errors</t>
-        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Documentation &amp; Reporting</t>
+          <t>Communication &amp; Response</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Snapshot/Screenshot Issues</t>
+          <t>No Proactive Communication</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -940,47 +936,37 @@
       <c r="E5" t="n">
         <v>20</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Missing snapshots</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Documentation &amp; Reporting</t>
+          <t>Communication &amp; Response</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>E911/CBN Reports</t>
+          <t>No Proactive Update</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Report generation errors</t>
-        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Documentation &amp; Reporting</t>
+          <t>Communication &amp; Response</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Email/Attachment Issues</t>
+          <t>Repeated Queries</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -992,73 +978,58 @@
       <c r="E7" t="n">
         <v>20</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Attachment problems</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Validation &amp; QA</t>
+          <t>Communication &amp; Response</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Precheck/Postcheck Failures</t>
+          <t>Training Issue</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Validation failures</t>
-        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Validation &amp; QA</t>
+          <t>Configuration &amp; Data Mismatch</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Measurement Issues</t>
+          <t>CIQ/SCF Mismatch</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>VSWR/RSSI issues</t>
-        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Validation &amp; QA</t>
+          <t>Configuration &amp; Data Mismatch</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Escalation Gaps</t>
+          <t>Config Error</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1070,88 +1041,68 @@
       <c r="E10" t="n">
         <v>20</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Missed escalations</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Process Compliance</t>
+          <t>Configuration &amp; Data Mismatch</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SOP Violations</t>
+          <t>Design Mismatch</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>SOP not followed</t>
-        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Process Compliance</t>
+          <t>Configuration &amp; Data Mismatch</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Improper Escalations</t>
+          <t>IP Mismatch</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Wrong escalation path</t>
-        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Process Compliance</t>
+          <t>Configuration &amp; Data Mismatch</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Release Procedure Issues</t>
+          <t>Missing Config</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Release without validation</t>
-        </is>
       </c>
     </row>
     <row r="14">
@@ -1162,22 +1113,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Port Matrix Issues</t>
+          <t>Missing Documents</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>20</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>PMX mismatch</t>
-        </is>
       </c>
     </row>
     <row r="15">
@@ -1188,22 +1134,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RET/TAC Naming</t>
+          <t>One-T Mismatch</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Naming convention errors</t>
-        </is>
       </c>
     </row>
     <row r="16">
@@ -1214,256 +1155,1571 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SCF/CIQ/RFDS Mismatch</t>
+          <t>Port Matrix Mismatch</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
         <v>20</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Config file mismatch</t>
-        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Site Readiness</t>
+          <t>Configuration &amp; Data Mismatch</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Backhaul Issues</t>
+          <t>RET Naming</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>20</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>BH not actualized</t>
-        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Site Readiness</t>
+          <t>Configuration &amp; Data Mismatch</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MW/Transmission Issues</t>
+          <t>RET Parameter</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>MW link not ready</t>
-        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Site Readiness</t>
+          <t>Configuration &amp; Data Mismatch</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Material/Equipment Issues</t>
+          <t>RET Swap</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Missing materials</t>
-        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Communication &amp; Response</t>
+          <t>Configuration &amp; Data Mismatch</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Delayed Responses</t>
+          <t>RFDS Mismatch</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Late replies</t>
-        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Communication &amp; Response</t>
+          <t>Configuration &amp; Data Mismatch</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Follow-up Issues</t>
+          <t>Spectrum Mismatch</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Follow-up gaps</t>
-        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Communication &amp; Response</t>
+          <t>Configuration &amp; Data Mismatch</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Distro/Routing Issues</t>
+          <t>TAC Mismatch</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Wrong distribution</t>
-        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nesting &amp; Tool Errors</t>
+          <t>Documentation &amp; Reporting</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nesting Type Errors</t>
+          <t>Data Mismatch</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>NSA/NSI wrong type</t>
-        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nesting &amp; Tool Errors</t>
+          <t>Documentation &amp; Reporting</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RIOT/FCI Tool Issues</t>
+          <t>Incomplete Snapshot</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Tool validation failures</t>
-        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Documentation &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Incorrect Reporting</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Incorrect Status</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Missing Attachment</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Missing Deliverable</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Missing Information</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Missing Logs</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Missing Snapshot</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Process Skip</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Wrong Attachment</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Wrong Site ID</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Reporting</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Wrong Subject</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>Nesting &amp; Tool Errors</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Market Guideline Violations</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Alarm Naming</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Delayed Audit</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>External Cancel</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>HW Issue</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Improper Extension</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>KPI Impact</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>4</v>
       </c>
-      <c r="E25" t="n">
-        <v>20</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Market rules violated</t>
-        </is>
+      <c r="E41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Missed Activation</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Missing Nesting</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Neighbor Impact</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Parameter Impact</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Post-OA Degradation</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Premature Unlock</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Rework</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Nesting &amp; Tool Errors</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Wrong Nest Type</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Process Compliance</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Missed Guidance</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Process Compliance</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Missed Step</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Process Compliance</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Missing Ticket</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Process Compliance</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>No Escalation</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Process Compliance</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Process Non-Compliance</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Process Compliance</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Process Violation</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Process Compliance</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Wrong Bucket</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Process Compliance</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Wrong Escalation</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Process Compliance</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Wrong File Used</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Process Compliance</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Wrong Nest State</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Scheduling &amp; Planning</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>No TI Entry</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Scheduling &amp; Planning</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Premature Scheduling</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Scheduling &amp; Planning</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Schedule Not Followed</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Scheduling &amp; Planning</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ticket Status Issue</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Scheduling &amp; Planning</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Weekend Schedule Issue</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Site Readiness</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BH Check Error</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Site Readiness</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BH Not Ready</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Site Readiness</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BH Status Issue</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Site Readiness</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MW Not Ready</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Site Readiness</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Material Missing</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6</v>
+      </c>
+      <c r="E69" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Site Readiness</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Site Complexity</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Site Readiness</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Site Down</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>8</v>
+      </c>
+      <c r="E71" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Site Readiness</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>iNTP Not Ready</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6</v>
+      </c>
+      <c r="E72" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ignored Anomaly</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Incomplete Testing</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Incomplete Validation</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Invalid CR</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Missed Activation</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Missed Call Test</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Missed Check</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Missed Degradation</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Missed Issue</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4</v>
+      </c>
+      <c r="E81" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Missed Tech</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>No Escalation</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>No Reversion</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Premature Checkout</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Premature Denial</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Skipped Validation</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Wrong Denial</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Wrong KPIs</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Validation &amp; QA</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Wrong Tool Usage</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1692,26 +2948,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Severity_Level</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Cost_Multiplier</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
@@ -1780,13 +3036,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
+        <is>
+          <t>Minor issue, no multiplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Minor issue, no multiplier</t>
         </is>
@@ -1906,4 +3177,134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="55" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Multiplier_Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue_at_risk</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Multiplier for downstream revenue impact (total_cost x this)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>opportunity_cost</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Opportunity cost as fraction of total cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>customer_impact</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Multiplier for customer-facing issue costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sla_penalty</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SLA penalty rate for critical issues</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>prevention_rate</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Expected prevention rate for ROI calculation (0-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>cost_avoidance_rate</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Expected cost avoidance rate for repeat issues (0-1)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>